--- a/data/trans_orig/Q57-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q57-Habitat-trans_orig.xlsx
@@ -608,13 +608,13 @@
         <v>7.665703793032908</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>7.957188819304272</v>
+        <v>7.957188819304271</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>7.406393986717934</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7.82462255086378</v>
+        <v>7.824622550863781</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>7.536252381212345</v>
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.548264645056166</v>
+        <v>7.533643918892622</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.80423657425212</v>
+        <v>7.809146147642308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.258323954594711</v>
+        <v>7.242755510629173</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.710193230703138</v>
+        <v>7.721233190223753</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.438010228035411</v>
+        <v>7.43571567377217</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>7.78989461784313</v>
+        <v>7.788048466176129</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.790937292022998</v>
+        <v>7.786993932614917</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.076684001492596</v>
+        <v>8.081046700948498</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.541455498293178</v>
+        <v>7.528926427518423</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.928665483839721</v>
+        <v>7.943154773841634</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.629821528519812</v>
+        <v>7.630541890614788</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.970873157881976</v>
+        <v>7.964933443375283</v>
       </c>
     </row>
     <row r="7">
@@ -696,13 +696,13 @@
         <v>7.415762672419619</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.85108454603556</v>
+        <v>7.851084546035561</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>7.515304174496626</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>8.01999543171639</v>
+        <v>8.019995431716389</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.518144367881915</v>
+        <v>7.512247083024592</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.083812741801973</v>
+        <v>8.07990783350894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.305613878954055</v>
+        <v>7.31301409944823</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7.746631908797263</v>
+        <v>7.743502245296844</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.447722909532368</v>
+        <v>7.444212094843328</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>7.946590725539559</v>
+        <v>7.94397251855921</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.716523799137932</v>
+        <v>7.719904896298801</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.298414633969553</v>
+        <v>8.295773723646414</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.527714370134483</v>
+        <v>7.528684479413761</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.942253771885569</v>
+        <v>7.942343536795661</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.593505062264408</v>
+        <v>7.594011481264911</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>8.088803229911523</v>
+        <v>8.093477681806291</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +772,7 @@
         <v>7.728663284239945</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>8.475784586358765</v>
+        <v>8.475784586358767</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>7.571487062725051</v>
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.615516296200506</v>
+        <v>7.617546821945317</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.358274143853382</v>
+        <v>8.354484282307332</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.45674450395831</v>
+        <v>7.458882267866139</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.203817425658213</v>
+        <v>8.200279108804816</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>7.568127861369748</v>
+        <v>7.574547344262365</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>8.309235026608389</v>
+        <v>8.313118369136244</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.830241673713194</v>
+        <v>7.821713478127888</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.58849207998928</v>
+        <v>8.594966814112579</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.694357468134896</v>
+        <v>7.689006372769039</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.414141153731146</v>
+        <v>8.417850743713613</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.7236648178061</v>
+        <v>7.725542083675779</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.475864469770107</v>
+        <v>8.474332258137345</v>
       </c>
     </row>
     <row r="13">
@@ -854,19 +854,19 @@
         <v>7.746015836189392</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.92715313122724</v>
+        <v>7.927153131227241</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>7.419464604633856</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.70079239173651</v>
+        <v>7.700792391736508</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>7.57396839696875</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>7.807147902956425</v>
+        <v>7.807147902956423</v>
       </c>
     </row>
     <row r="14">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.645898713902572</v>
+        <v>7.644699296989574</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>7.81348442114834</v>
+        <v>7.818674328292841</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.315388770640474</v>
+        <v>7.30203471334904</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7.604817622191355</v>
+        <v>7.594331311765446</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>7.494640064977941</v>
+        <v>7.492261083695964</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.739572572385701</v>
+        <v>7.734615872707889</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.850911289186278</v>
+        <v>7.846666353824623</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.030960971161171</v>
+        <v>8.036305840854464</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.533314335875734</v>
+        <v>7.534953431510468</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.791270865271688</v>
+        <v>7.807236007856794</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>7.646915283121474</v>
+        <v>7.652538538022301</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>7.874597974948738</v>
+        <v>7.879832975299085</v>
       </c>
     </row>
     <row r="16">
@@ -936,7 +936,7 @@
         <v>7.687208783450733</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>8.136683293640823</v>
+        <v>8.136683293640822</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>7.449478316325241</v>
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.636240797878489</v>
+        <v>7.631009050221135</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>8.073917671207742</v>
+        <v>8.077490670441184</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.390398829251279</v>
+        <v>7.388822329915494</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7.851472356028464</v>
+        <v>7.850971594536617</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.526092579124516</v>
+        <v>7.524515001550536</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.977067147232067</v>
+        <v>7.9730144215483</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.740885704474447</v>
+        <v>7.739655914160555</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.192722412892856</v>
+        <v>8.192624677428398</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.507693502597301</v>
+        <v>7.503282782828641</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.950273083764755</v>
+        <v>7.953747884755118</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.6077461089814</v>
+        <v>7.604388479578224</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.056200373501252</v>
+        <v>8.053218445052401</v>
       </c>
     </row>
     <row r="19">
